--- a/Assets/_TableResources/Table_Player.xlsx
+++ b/Assets/_TableResources/Table_Player.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43431B8-702E-4C25-B076-5F53621EB7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C7F19-4C7F-4986-801A-171E1AEE9E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10370" yWindow="3430" windowWidth="12620" windowHeight="7690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4330" yWindow="2220" windowWidth="20070" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerCharacters" sheetId="1" r:id="rId1"/>
@@ -400,14 +400,14 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="6" max="6" width="13.9140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="16.4140625" customWidth="1"/>
     <col min="10" max="10" width="17.25" customWidth="1"/>
     <col min="11" max="11" width="18.08203125" customWidth="1"/>
@@ -468,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>10</v>
